--- a/App/django_files/مانده های فعال سازی در سایت.xlsx
+++ b/App/django_files/مانده های فعال سازی در سایت.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,347 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>دی اچ</t>
-        </is>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>دی اچ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>آمز</t>
-        </is>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>آمز</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AMEZ</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>AMEZ</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>AMEZ</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>هیلا</t>
-        </is>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>هیلا</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>HILLA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HILLA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>HILLA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>آیهان</t>
-        </is>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>آیهان</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ayhan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ayhan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ayhan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>هات نایت مردانه</t>
-        </is>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>هات نایت مردانه</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>HOT NIGHT FOR MEN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HOT NIGHT FOR MEN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HOT-NIGHT-FOR-MEN</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>هات نایت زنانه</t>
-        </is>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>هات نایت زنانه</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>HOT NIGHT FOR WOMEN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HOT NIGHT FOR WOMEN</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HOT-NIGHT-FOR-WOMEN</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>بلاسم</t>
-        </is>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>بلاسم</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BLOSSOM</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BLOSSOM</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>BLOSSOM</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>مولکول</t>
-        </is>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>مولکول</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MOLECULE 01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MOLECULE 01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>MOLECULE01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>اچ ام ۱</t>
-        </is>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>هانی مون ۱</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>HONEYMOON 1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HONEYMOON 1</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>HONEYMOON1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>تروی</t>
-        </is>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>تروی</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TROY</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TROY</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>TROY</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>بست اف کرید</t>
-        </is>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>`بست اف کرید</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>BEST OF CREED</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BEST OF CREED</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>BEST_OF_CREED</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/App/django_files/مانده های فعال سازی در سایت.xlsx
+++ b/App/django_files/مانده های فعال سازی در سایت.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,874 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>پردا لهوم اینتنس</t>
+        </is>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>پردا لهوم اینتنس</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Prada LHomme Intense</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>پردا لهوم اینتنس</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Prada_LHomme_Intense</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">دیپ نایت </t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">دیپ نایت </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Roberto Vizzari Deep Night</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">دیپ نایت </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Roberto_Vizzari_Deep_Night</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">اسکندال </t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">اسکندال </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Scandal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">اسکندال </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Scandal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>هرودمارلی</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>هرودمارلی</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Herod</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هرود مارلی </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Herod</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>کرید گرین آیریش</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>کرید گرین آیریش</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CREED Green Irish Tweed</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>کرید گرین آیریش</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CREED_Green_Irish_Tweed</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">لاگوست سبز </t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">لاگوست سبز </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Lacoste Essential</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">لاگوست سبز </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lacoste_Essential</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جیونچی پلی </t>
+        </is>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جیونچی پلی </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GIVENCHY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جیونچی پلی </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>GIVENCHY</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ارتک </t>
+        </is>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ارتک </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Artak</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ارتک </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Artak</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">بوس فیم </t>
+        </is>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">بوس فیم </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hugo Femme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">بوس فیم </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hugo_Femme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آوات </t>
+        </is>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آوات </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Avat</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آوات </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Avat</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ناشا </t>
+        </is>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ناشا </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nasha</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ناشا </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nasha</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آرام </t>
+        </is>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آرام </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Aram</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آرام </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Aram</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">طیلا </t>
+        </is>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">طیلا </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tila</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">طیلا </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tila</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جورجیو </t>
+        </is>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جورجیو </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jorjio</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جورجیو </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Jorjio</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">اژین </t>
+        </is>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">اژین </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ezhin</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">اژین </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ezhin</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>کرید سیلور مانتین</t>
+        </is>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>کرید سیلور مانتین</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CREED Silver Mountain</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>کرید سیلور مانتین</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CREED_Silver_Mountain</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مون گرلن </t>
+        </is>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مون گرلن </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon Guerlain</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مون گرلن </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mon_Guerlain</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ورساچ مشکی </t>
+        </is>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ورساچ مشکی </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Versace Crystal Noir</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ورساچ مشکی </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Versace_Crystal_Noir</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>اچ ام ۳</t>
+        </is>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>اچ ام ۳</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Honeymoon3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>هانی مون 3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Honeymoon3</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آنر آمواج </t>
+        </is>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آنر آمواج </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AMOUAGE Honour</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آنر امواج </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>AMOUAGE_Honour</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>اچ ام ۲</t>
+        </is>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>اچ ام ۲</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Honeymoon2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هانی مون 2  </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Honeymoon2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>آیسو</t>
+        </is>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>آیسو</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Aysou</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>آیسو</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Aysou</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">تارا </t>
+        </is>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">تارا </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>tara</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">تارا </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>tara</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>آلوراسپرت</t>
+        </is>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>آلوراسپرت</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CHANEL Allure Homme Sport</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">آلور اسپرت شانل </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CHANEL_Allure_Homme_Sport</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">دیورهوم اسپرت </t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">دیورهوم اسپرت </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Dior Homme Sport</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>دیورهوم اسپرت</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Dior_Homme_Sport</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">کرید پور اینفانس </t>
+        </is>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">کرید پور اینفانس </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Creed Pour Enfants</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">کرید پور اینفانس </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Creed_Pour_Enfants</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هیندوگراس </t>
+        </is>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هیندوگراس </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Hindu Grass</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هیندوگراس </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Hindu_Grass</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هور </t>
+        </is>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هور </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Hoor</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هور </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hoor</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/App/django_files/مانده های فعال سازی در سایت.xlsx
+++ b/App/django_files/مانده های فعال سازی در سایت.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,30 +473,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>پردا لهوم اینتنس</t>
-        </is>
-      </c>
-      <c r="B2" t="b">
+          <t xml:space="preserve">ارتک </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>پردا لهوم اینتنس</t>
+          <t xml:space="preserve">ارتک </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Prada LHomme Intense</t>
+          <t>Artak</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>پردا لهوم اینتنس</t>
+          <t xml:space="preserve">ارتک </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Prada_LHomme_Intense</t>
+          <t>Artak</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -504,30 +504,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">دیپ نایت </t>
-        </is>
-      </c>
-      <c r="B3" t="b">
+          <t xml:space="preserve">بوس فیم </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">دیپ نایت </t>
+          <t xml:space="preserve">بوس فیم </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Roberto Vizzari Deep Night</t>
+          <t>Hugo Femme</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">دیپ نایت </t>
+          <t xml:space="preserve">بوس فیم </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Roberto_Vizzari_Deep_Night</t>
+          <t>Hugo_Femme</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -535,30 +535,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">اسکندال </t>
-        </is>
-      </c>
-      <c r="B4" t="b">
+          <t xml:space="preserve">آوات </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">اسکندال </t>
+          <t xml:space="preserve">آوات </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Scandal</t>
+          <t>Avat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">اسکندال </t>
+          <t xml:space="preserve">آوات </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Scandal</t>
+          <t>Avat</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -566,30 +566,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>هرودمارلی</t>
-        </is>
-      </c>
-      <c r="B5" t="b">
+          <t xml:space="preserve">ناشا </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>هرودمارلی</t>
+          <t xml:space="preserve">ناشا </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Herod</t>
+          <t>Nasha</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">هرود مارلی </t>
+          <t xml:space="preserve">ناشا </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herod</t>
+          <t>Nasha</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -597,30 +597,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>کرید گرین آیریش</t>
-        </is>
-      </c>
-      <c r="B6" t="b">
+          <t xml:space="preserve">آرام </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>کرید گرین آیریش</t>
+          <t xml:space="preserve">آرام </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CREED Green Irish Tweed</t>
+          <t>Aram</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>کرید گرین آیریش</t>
+          <t xml:space="preserve">آرام </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CREED_Green_Irish_Tweed</t>
+          <t>Aram</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -628,30 +628,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">لاگوست سبز </t>
-        </is>
-      </c>
-      <c r="B7" t="b">
+          <t xml:space="preserve">طیلا </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">لاگوست سبز </t>
+          <t xml:space="preserve">طیلا </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lacoste Essential</t>
+          <t>Tila</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">لاگوست سبز </t>
+          <t xml:space="preserve">طیلا </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lacoste_Essential</t>
+          <t>Tila</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -659,30 +659,30 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">جیونچی پلی </t>
-        </is>
-      </c>
-      <c r="B8" t="b">
+          <t xml:space="preserve">جورجیو </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">جیونچی پلی </t>
+          <t xml:space="preserve">جورجیو </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GIVENCHY</t>
+          <t>Jorjio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">جیونچی پلی </t>
+          <t xml:space="preserve">جورجیو </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GIVENCHY</t>
+          <t>Jorjio</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -690,30 +690,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ارتک </t>
-        </is>
-      </c>
-      <c r="B9" t="b">
+          <t xml:space="preserve">اژین </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ارتک </t>
+          <t xml:space="preserve">اژین </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Artak</t>
+          <t>Ezhin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ارتک </t>
+          <t xml:space="preserve">اژین </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Artak</t>
+          <t>Ezhin</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -721,30 +721,30 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">بوس فیم </t>
-        </is>
-      </c>
-      <c r="B10" t="b">
+          <t>کرید سیلور مانتین</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">بوس فیم </t>
+          <t>کرید سیلور مانتین</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hugo Femme</t>
+          <t>CREED Silver Mountain</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">بوس فیم </t>
+          <t>کرید سیلور مانتین</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hugo_Femme</t>
+          <t>CREED_Silver_Mountain</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -752,30 +752,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">آوات </t>
-        </is>
-      </c>
-      <c r="B11" t="b">
+          <t xml:space="preserve">مون گرلن </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">آوات </t>
+          <t xml:space="preserve">مون گرلن </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Avat</t>
+          <t>Mon Guerlain</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">آوات </t>
+          <t xml:space="preserve">مون گرلن </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Avat</t>
+          <t>Mon_Guerlain</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -783,30 +783,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ناشا </t>
-        </is>
-      </c>
-      <c r="B12" t="b">
+          <t xml:space="preserve">ورساچ مشکی </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ناشا </t>
+          <t xml:space="preserve">ورساچ مشکی </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nasha</t>
+          <t>Versace Crystal Noir</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ناشا </t>
+          <t xml:space="preserve">ورساچ مشکی </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nasha</t>
+          <t>Versace_Crystal_Noir</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -814,30 +814,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">آرام </t>
-        </is>
-      </c>
-      <c r="B13" t="b">
+          <t>اچ ام ۳</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">آرام </t>
+          <t>اچ ام ۳</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aram</t>
+          <t>Honeymoon3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">آرام </t>
+          <t>هانی مون 3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Aram</t>
+          <t>Honeymoon3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -845,30 +845,30 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">طیلا </t>
-        </is>
-      </c>
-      <c r="B14" t="b">
+          <t xml:space="preserve">آنر آمواج </t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">طیلا </t>
+          <t xml:space="preserve">آنر آمواج </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tila</t>
+          <t>AMOUAGE Honour</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">طیلا </t>
+          <t xml:space="preserve">آنر امواج </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tila</t>
+          <t>AMOUAGE_Honour</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -876,30 +876,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">جورجیو </t>
-        </is>
-      </c>
-      <c r="B15" t="b">
+          <t>اچ ام ۲</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">جورجیو </t>
+          <t>اچ ام ۲</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jorjio</t>
+          <t>Honeymoon2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">جورجیو </t>
+          <t xml:space="preserve">هانی مون 2  </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Jorjio</t>
+          <t>Honeymoon2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -907,30 +907,30 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">اژین </t>
-        </is>
-      </c>
-      <c r="B16" t="b">
+          <t>آیسو</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">اژین </t>
+          <t>آیسو</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ezhin</t>
+          <t>Aysou</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">اژین </t>
+          <t>آیسو</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ezhin</t>
+          <t>Aysou</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -938,30 +938,30 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>کرید سیلور مانتین</t>
-        </is>
-      </c>
-      <c r="B17" t="b">
+          <t xml:space="preserve">تارا </t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>کرید سیلور مانتین</t>
+          <t xml:space="preserve">تارا </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CREED Silver Mountain</t>
+          <t>tara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>کرید سیلور مانتین</t>
+          <t xml:space="preserve">تارا </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CREED_Silver_Mountain</t>
+          <t>tara</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -969,30 +969,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">مون گرلن </t>
-        </is>
-      </c>
-      <c r="B18" t="b">
+          <t>آلوراسپرت</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">مون گرلن </t>
+          <t>آلوراسپرت</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon Guerlain</t>
+          <t>CHANEL Allure Homme Sport</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">مون گرلن </t>
+          <t xml:space="preserve">آلور اسپرت شانل </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mon_Guerlain</t>
+          <t>CHANEL_Allure_Homme_Sport</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1000,30 +1000,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ورساچ مشکی </t>
-        </is>
-      </c>
-      <c r="B19" t="b">
+          <t xml:space="preserve">دیورهوم اسپرت </t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ورساچ مشکی </t>
+          <t xml:space="preserve">دیورهوم اسپرت </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Versace Crystal Noir</t>
+          <t>Dior Homme Sport</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ورساچ مشکی </t>
+          <t>دیورهوم اسپرت</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Versace_Crystal_Noir</t>
+          <t>Dior_Homme_Sport</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1031,30 +1031,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>اچ ام ۳</t>
-        </is>
-      </c>
-      <c r="B20" t="b">
+          <t xml:space="preserve">کرید پور اینفانس </t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>اچ ام ۳</t>
+          <t xml:space="preserve">کرید پور اینفانس </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Honeymoon3</t>
+          <t>Creed Pour Enfants</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>هانی مون 3</t>
+          <t xml:space="preserve">کرید پور اینفانس </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Honeymoon3</t>
+          <t>Creed_Pour_Enfants</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1062,30 +1062,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">آنر آمواج </t>
-        </is>
-      </c>
-      <c r="B21" t="b">
+          <t xml:space="preserve">هیندوگراس </t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">آنر آمواج </t>
+          <t xml:space="preserve">هیندوگراس </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AMOUAGE Honour</t>
+          <t>Hindu Grass</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">آنر امواج </t>
+          <t xml:space="preserve">هیندوگراس </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AMOUAGE_Honour</t>
+          <t>Hindu_Grass</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1093,250 +1093,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>اچ ام ۲</t>
-        </is>
-      </c>
-      <c r="B22" t="b">
+          <t xml:space="preserve">هور </t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>اچ ام ۲</t>
+          <t xml:space="preserve">هور </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Honeymoon2</t>
+          <t>Hoor</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">هانی مون 2  </t>
+          <t xml:space="preserve">هور </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Honeymoon2</t>
+          <t>Hoor</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>آیسو</t>
-        </is>
-      </c>
-      <c r="B23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>آیسو</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Aysou</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>آیسو</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Aysou</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">تارا </t>
-        </is>
-      </c>
-      <c r="B24" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">تارا </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>tara</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">تارا </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>tara</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>آلوراسپرت</t>
-        </is>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>آلوراسپرت</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CHANEL Allure Homme Sport</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">آلور اسپرت شانل </t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>CHANEL_Allure_Homme_Sport</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">دیورهوم اسپرت </t>
-        </is>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">دیورهوم اسپرت </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Dior Homme Sport</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>دیورهوم اسپرت</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Dior_Homme_Sport</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">کرید پور اینفانس </t>
-        </is>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">کرید پور اینفانس </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Creed Pour Enfants</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">کرید پور اینفانس </t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Creed_Pour_Enfants</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">هیندوگراس </t>
-        </is>
-      </c>
-      <c r="B28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">هیندوگراس </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Hindu Grass</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">هیندوگراس </t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Hindu_Grass</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">هور </t>
-        </is>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">هور </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Hoor</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">هور </t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Hoor</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/App/django_files/مانده های فعال سازی در سایت.xlsx
+++ b/App/django_files/مانده های فعال سازی در سایت.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,37 +436,3353 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>product_name</t>
+          <t>آیدی</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>act</t>
+          <t>نام کامل</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>oldName</t>
+          <t>وضعیت</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>latin_name</t>
+          <t>اندیس حجم</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>page_title</t>
+          <t>قیمت فروشگاه</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>slug</t>
+          <t>اصلی کالا</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>des</t>
+          <t xml:space="preserve">قیمت روز خرید </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>بارکد</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>موجودی تمام انبار</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59187</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری میراژ  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4,460,000</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2,230,000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59147</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید گرین آیریش  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7,880,000</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3,065,000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59023</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری میراژ  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,010,000</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1,505,000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>15 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58983</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید گرین آیریش  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5,670,000</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2,015,000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58860</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری میراژ  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2,240,000</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,120,000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58820</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید گرین آیریش  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4,450,000</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1,445,000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>7 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58559</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16,250,000</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8,130,000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>32 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58558</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12,560,000</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6,280,000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>38 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58557</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8,700,000</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4,350,000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>48 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58556</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو  15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10,650,000</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4,530,000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>66 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58555</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو  10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6,020,000</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اژین  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13,270,000</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7,806,000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>19 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58533</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اژین  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9,460,000</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5,570,000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>45 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58532</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اژین  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7,360,000</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4,330,000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>34 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58531</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اژین  15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8,870,000</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4,424,000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>50 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58530</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ارتک  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15,860,000</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>7,930,000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58529</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ارتک  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11,400,000</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5,700,000</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>43 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58528</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ارتک  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8,920,000</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4,270,000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>27 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58527</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ارتک  15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10,850,000</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4,610,000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>99 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>82635</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جورجیو - 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9,190,000</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>7,660,000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>29 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>79761</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جورجیو 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9,190,000</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>7,660,000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>75942</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری پرادا لهوم اینتنس 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5,520,000</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3,680,000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>74646</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تارا  - 100 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24,390,000</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>12,195,000</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>25 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>74645</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ناشا - 100 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>17,120,000</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>8,560,000</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>37 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>67227</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آرام 12 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5,170,000</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1,835,000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59211</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هرود مارلی  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10,760,000</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>6,725,000</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>14 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59200</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ نویر  ایکس  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>12,710,000</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>7,944,000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59199</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ نویر  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>12,710,000</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>7,944,000</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>17 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59195</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری وان میلیون  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10,480,000</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5,240,000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59185</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مون گرلن  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>15,750,000</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59162</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لاگوست سبز  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>8,940,000</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3,400,000</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59146</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید سیلور مانتین تاپ  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>15,590,000</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10,694,000</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59145</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید پور اینفانس  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24,330,000</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59111</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جیونچی پلی  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10,810,000</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59094</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بوس فیم  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14,970,000</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59087</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری آنر امواج  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14,340,000</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59084</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری آلور اسپرت شانل  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>13,540,000</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>8,463,000</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>4 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59068</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسکندال  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2,740,000</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1,370,000</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59049</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هیندوگراس  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>10,120,000</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>5,060,000</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>58 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59047</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هرود مارلی  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>7,860,000</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>4,920,000</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>33 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59035</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ نویر  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>9,030,000</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>5,650,000</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>44 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59031</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری وان میلیون  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>7,510,000</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>5,010,000</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>17 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59021</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مون گرلن  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>9,790,000</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>4,895,000</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>53 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58998</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لاگوست سبز  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6,590,000</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4,394,000</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>18 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58982</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید سیلور مانتین 30x میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10,310,000</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>6,880,000</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>22 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58981</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید پور اینفانس  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>16,030,000</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>8,015,000</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>18 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58957</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دیپ نایت  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6,170,000</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>3,085,000</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>6 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58947</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جیونچی پلی  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>7,710,000</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>5,140,000</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>9 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58930</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بوس فیم  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>9,320,000</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>4,660,000</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>37 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58922</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری آنر امواج  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>9,780,000</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>4,890,000</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>35 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58919</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری آلور اسپرت شانل  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>9,530,000</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>5,960,000</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>20 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58903</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسکندال  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2,000,000</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1,340,000</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58884</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هرود مارلی  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>6,230,000</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2,015,000</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>32 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58873</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ نویر ایکس  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>7,010,000</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3,040,000</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58872</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ نویر  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>7,010,000</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3,225,000</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>29 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58868</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری وان میلیون  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>5,870,000</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3,914,000</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>20 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مون گرلن  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>6,750,000</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3,375,000</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58835</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لاگوست سبز  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>5,260,000</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3,507,000</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>6 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58819</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید سیلور مانتین تاپ  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>7,520,000</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>5,020,000</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58818</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید پور اینفانس  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>11,650,000</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>5,825,000</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58784</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جیونچی پلی  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>6,000,000</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>4,000,000</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58759</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری آنر امواج  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>7,330,000</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>4,932,000</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58756</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری آلور اسپرت شانل  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7,340,000</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>3,390,000</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>51 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58740</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسکندال  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1,550,000</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1,034,000</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>14 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58681</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هور  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>9,400,000</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>4,700,000</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>5 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58680</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هور  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>7,590,000</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3,795,000</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58679</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 3  15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>8,080,000</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>3,435,000</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NHM315</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58678</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 2  15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>7,400,000</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>3,100,000</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NHM215</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>38 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58674</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 3  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>11,920,000</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>7,020,000</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>20 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58673</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 3  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>8,540,000</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>5,030,000</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>NHM330</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>54 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58672</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 3  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>6,670,000</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3,930,000</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>NHM320</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>26 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58671</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 2  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14,880,000</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>8,760,000</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>NHM250</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>17 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58670</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 2  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>11,420,000</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>6,720,000</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>NHM230</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>43 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58669</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 2  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>7,310,000</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>3,512,000</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NHM220</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>29 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58668</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 2  10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>5,630,000</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NHM210</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58646</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ناشا  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>12,380,000</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>6,190,000</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>13 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58645</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ناشا  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>8,940,000</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>4,470,000</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>21 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58644</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ناشا  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>6,420,000</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3,510,000</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>3 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58643</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ناشا  15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>8,570,000</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3,645,000</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>19 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58601</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری طیلا  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25,030,000</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>12,515,000</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>19 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58600</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری طیلا  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>16,770,000</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>8,390,000</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>29 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58599</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری طیلا  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>12,420,000</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>6,210,000</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>39 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58598</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری طیلا  15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>13,930,000</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>5,840,000</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>41 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58597</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری طیلا  10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>7,770,000</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58586</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تارا  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>16,330,000</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>8,165,000</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>10 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58585</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تارا  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>11,430,000</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>5,720,000</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>7 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58584</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تارا  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>8,770,000</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>4,385,000</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>57 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58583</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تارا  15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>10,370,000</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>4,385,000</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>61 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58553</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آوات  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>5,250,000</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2,630,000</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>5 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58552</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آوات  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3,650,000</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,825,000</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>52 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58538</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آرام  50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>19,820,000</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>9,910,000</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>34 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58537</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آرام  30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>14,700,000</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>7,350,000</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>54 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>58536</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آرام  20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>8,230,000</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>5,065,000</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>43 عدد</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>58535</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آرام  15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>11,970,000</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>5,065,000</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>19 عدد</t>
         </is>
       </c>
     </row>

--- a/App/django_files/مانده های فعال سازی در سایت.xlsx
+++ b/App/django_files/مانده های فعال سازی در سایت.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,29 +441,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">دسته بندی </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>حجم</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>نام کامل</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>قیمت فروشگاه</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>وضعیت</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>اندیس حجم</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>قیمت فروشگاه</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>اصلی کالا</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">قیمت روز خرید </t>
@@ -477,6 +477,11 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>موجودی تمام انبار</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ایجاد شده</t>
         </is>
       </c>
     </row>

--- a/App/django_files/مانده های فعال سازی در سایت.xlsx
+++ b/App/django_files/مانده های فعال سازی در سایت.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">دسته بندی </t>
+          <t>گارانتی</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>نام کامل</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>حجم</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>نام کامل</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>قیمت فروشگاه</t>
@@ -461,27 +461,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>وضعیت</t>
+          <t>اصلی کالا</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">قیمت روز خرید </t>
+          <t>قیمت روز خرید</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>بارکد</t>
+          <t>قیمت سایت</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>موجودی تمام انبار</t>
+          <t>قیمت با تخفیف</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ایجاد شده</t>
+          <t>فعال در سایت</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>تامین کننده</t>
         </is>
       </c>
     </row>
